--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -5304,7 +5304,7 @@
         <v>130719426</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>130719742</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>130719248</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>130719785</v>
       </c>
       <c r="B45" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>130719929</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>130719892</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>130719486</v>
       </c>
       <c r="B48" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>130719818</v>
       </c>
       <c r="B49" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>130719759</v>
       </c>
       <c r="B50" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>130719533</v>
       </c>
       <c r="B51" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>130719350</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>130839076</v>
       </c>
       <c r="B53" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>130839080</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>130838040</v>
       </c>
       <c r="B55" t="n">
-        <v>83224</v>
+        <v>83228</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>130838768</v>
       </c>
       <c r="B56" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>130838099</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>130838346</v>
       </c>
       <c r="B58" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>130838225</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>130839371</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>130839417</v>
       </c>
       <c r="B61" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>130838554</v>
       </c>
       <c r="B62" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>130837289</v>
       </c>
       <c r="B63" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>130837438</v>
       </c>
       <c r="B64" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7999,10 +7999,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130839350</v>
+        <v>130837548</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>445790</v>
+        <v>445740</v>
       </c>
       <c r="R65" t="n">
-        <v>7026340</v>
+        <v>7026322</v>
       </c>
       <c r="S65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8079,12 +8079,12 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837548</v>
+        <v>130839350</v>
       </c>
       <c r="B66" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,21 +8122,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8146,13 +8146,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445740</v>
+        <v>445790</v>
       </c>
       <c r="R66" t="n">
-        <v>7026322</v>
+        <v>7026340</v>
       </c>
       <c r="S66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8191,12 +8191,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8226,7 +8226,7 @@
         <v>130837393</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>130839110</v>
       </c>
       <c r="B68" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>130837316</v>
       </c>
       <c r="B69" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>130838077</v>
       </c>
       <c r="B70" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>130838158</v>
       </c>
       <c r="B71" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>130838918</v>
       </c>
       <c r="B72" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>130839401</v>
       </c>
       <c r="B73" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>130839069</v>
       </c>
       <c r="B74" t="n">
-        <v>79495</v>
+        <v>79499</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>130839071</v>
       </c>
       <c r="B75" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>130838833</v>
       </c>
       <c r="B76" t="n">
-        <v>89189</v>
+        <v>89193</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>130837733</v>
       </c>
       <c r="B77" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130837541</v>
+        <v>130839413</v>
       </c>
       <c r="B78" t="n">
-        <v>75217</v>
+        <v>78255</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445740</v>
+        <v>445781</v>
       </c>
       <c r="R78" t="n">
-        <v>7026322</v>
+        <v>7026373</v>
       </c>
       <c r="S78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9585,32 +9585,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130839413</v>
+        <v>130837541</v>
       </c>
       <c r="B79" t="n">
-        <v>78251</v>
+        <v>75221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>228579</v>
+        <v>6428</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>445781</v>
+        <v>445740</v>
       </c>
       <c r="R79" t="n">
-        <v>7026373</v>
+        <v>7026322</v>
       </c>
       <c r="S79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9700,7 +9700,7 @@
         <v>130839277</v>
       </c>
       <c r="B80" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -7999,10 +7999,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130837548</v>
+        <v>130839350</v>
       </c>
       <c r="B65" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>445740</v>
+        <v>445790</v>
       </c>
       <c r="R65" t="n">
-        <v>7026322</v>
+        <v>7026340</v>
       </c>
       <c r="S65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8079,12 +8079,12 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8111,7 +8111,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130839350</v>
+        <v>130837393</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -8139,20 +8139,29 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445790</v>
+        <v>445769</v>
       </c>
       <c r="R66" t="n">
-        <v>7026340</v>
+        <v>7026332</v>
       </c>
       <c r="S66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8181,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8191,12 +8200,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8223,10 +8232,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8234,43 +8243,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R67" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD67" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY80"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130839110</v>
+        <v>130837316</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8355,46 +8355,37 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>445730</v>
+        <v>445777</v>
       </c>
       <c r="R68" t="n">
-        <v>7026205</v>
+        <v>7026331</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8423,7 +8414,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8433,12 +8424,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>På gammal klen död gran i gammal granskog</t>
+          <t>Rikligt på bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8465,10 +8456,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130837316</v>
+        <v>130839110</v>
       </c>
       <c r="B69" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8476,37 +8467,46 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>445777</v>
+        <v>445730</v>
       </c>
       <c r="R69" t="n">
-        <v>7026331</v>
+        <v>7026205</v>
       </c>
       <c r="S69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8545,12 +8545,12 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Rikligt på bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal klen död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -9361,10 +9361,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130837733</v>
+        <v>130839413</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>78255</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9372,21 +9372,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9396,13 +9396,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>445720</v>
+        <v>445781</v>
       </c>
       <c r="R77" t="n">
-        <v>7026343</v>
+        <v>7026373</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På gammal död gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130839413</v>
+        <v>130837541</v>
       </c>
       <c r="B78" t="n">
-        <v>78255</v>
+        <v>75221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>228579</v>
+        <v>6428</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445781</v>
+        <v>445740</v>
       </c>
       <c r="R78" t="n">
-        <v>7026373</v>
+        <v>7026322</v>
       </c>
       <c r="S78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9585,32 +9585,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130837541</v>
+        <v>130837733</v>
       </c>
       <c r="B79" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>445740</v>
+        <v>445720</v>
       </c>
       <c r="R79" t="n">
-        <v>7026322</v>
+        <v>7026343</v>
       </c>
       <c r="S79" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På gammal död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9816,6 +9816,127 @@
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>131074382</v>
+      </c>
+      <c r="B81" t="n">
+        <v>57988</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>103031</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Lavskrika</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Perisoreus infaustus</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Svedaun, Svedaun, Jmt</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>445791</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7026340</v>
+      </c>
+      <c r="S81" t="n">
+        <v>15</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Lockade i ca 3 minuter på en grantopp</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Ludvig Nordin</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Ludvig Nordin</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -5413,10 +5413,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130719742</v>
+        <v>130719785</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>78255</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5424,43 +5424,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>445734</v>
+        <v>445739</v>
       </c>
       <c r="R43" t="n">
-        <v>7026264</v>
+        <v>7026240</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5492,7 +5483,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5502,12 +5493,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På gammal gran i gles gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5534,7 +5525,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130719248</v>
+        <v>130719742</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5564,7 +5555,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5578,13 +5569,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>445790</v>
+        <v>445734</v>
       </c>
       <c r="R44" t="n">
-        <v>7026392</v>
+        <v>7026264</v>
       </c>
       <c r="S44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5613,7 +5604,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5623,12 +5614,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
+          <t>På gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5639,21 +5630,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5670,10 +5646,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130719785</v>
+        <v>130719248</v>
       </c>
       <c r="B45" t="n">
-        <v>78255</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5681,37 +5657,46 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>445739</v>
+        <v>445790</v>
       </c>
       <c r="R45" t="n">
-        <v>7026240</v>
+        <v>7026392</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5740,7 +5725,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5750,12 +5735,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5766,6 +5751,21 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -5413,10 +5413,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130719785</v>
+        <v>130719248</v>
       </c>
       <c r="B43" t="n">
-        <v>78255</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5424,37 +5424,46 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>445739</v>
+        <v>445790</v>
       </c>
       <c r="R43" t="n">
-        <v>7026240</v>
+        <v>7026392</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5483,7 +5492,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5493,12 +5502,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5509,6 +5518,21 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5646,10 +5670,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130719248</v>
+        <v>130719785</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>78255</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5657,46 +5681,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>445790</v>
+        <v>445739</v>
       </c>
       <c r="R45" t="n">
-        <v>7026392</v>
+        <v>7026240</v>
       </c>
       <c r="S45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5725,7 +5740,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5735,12 +5750,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5751,21 +5766,6 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,43 +8122,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R66" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S66" t="n">
         <v>8</v>
@@ -8190,7 +8181,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,12 +8191,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8232,10 +8223,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837548</v>
+        <v>130837393</v>
       </c>
       <c r="B67" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8243,34 +8234,43 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445740</v>
+        <v>445769</v>
       </c>
       <c r="R67" t="n">
-        <v>7026322</v>
+        <v>7026332</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130837541</v>
+        <v>130837733</v>
       </c>
       <c r="B78" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445740</v>
+        <v>445720</v>
       </c>
       <c r="R78" t="n">
-        <v>7026322</v>
+        <v>7026343</v>
       </c>
       <c r="S78" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På gammal död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9585,32 +9585,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130837733</v>
+        <v>130837541</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>445720</v>
+        <v>445740</v>
       </c>
       <c r="R79" t="n">
-        <v>7026343</v>
+        <v>7026322</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På gammal död gran i gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -5413,7 +5413,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130719248</v>
+        <v>130719742</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>445790</v>
+        <v>445734</v>
       </c>
       <c r="R43" t="n">
-        <v>7026392</v>
+        <v>7026264</v>
       </c>
       <c r="S43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5502,12 +5502,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
+          <t>På gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5518,21 +5518,6 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5549,7 +5534,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130719742</v>
+        <v>130719248</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5579,7 +5564,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5593,13 +5578,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>445734</v>
+        <v>445790</v>
       </c>
       <c r="R44" t="n">
-        <v>7026264</v>
+        <v>7026392</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5628,7 +5613,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5638,12 +5623,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På gammal gran i gles gammal granskog</t>
+          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5654,6 +5639,21 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -6865,10 +6865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130838040</v>
+        <v>130838768</v>
       </c>
       <c r="B55" t="n">
-        <v>83228</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6876,21 +6876,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445709</v>
+        <v>445697</v>
       </c>
       <c r="R55" t="n">
-        <v>7026357</v>
+        <v>7026283</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
+          <t>På gammal gran i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6977,10 +6977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130838768</v>
+        <v>130838040</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>83228</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6988,21 +6988,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>445697</v>
+        <v>445709</v>
       </c>
       <c r="R56" t="n">
-        <v>7026283</v>
+        <v>7026357</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal barrblandskog</t>
+          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837548</v>
+        <v>130837393</v>
       </c>
       <c r="B66" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,34 +8122,43 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445740</v>
+        <v>445769</v>
       </c>
       <c r="R66" t="n">
-        <v>7026322</v>
+        <v>7026332</v>
       </c>
       <c r="S66" t="n">
         <v>8</v>
@@ -8181,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8191,12 +8200,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8223,10 +8232,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8234,43 +8243,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R67" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -9249,10 +9249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130838833</v>
+        <v>130839413</v>
       </c>
       <c r="B76" t="n">
-        <v>89193</v>
+        <v>78255</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>510</v>
+        <v>228579</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>445685</v>
+        <v>445781</v>
       </c>
       <c r="R76" t="n">
-        <v>7026259</v>
+        <v>7026373</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>På granlåga i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9361,10 +9361,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130839413</v>
+        <v>130837733</v>
       </c>
       <c r="B77" t="n">
-        <v>78255</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9372,21 +9372,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9396,13 +9396,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>445781</v>
+        <v>445720</v>
       </c>
       <c r="R77" t="n">
-        <v>7026373</v>
+        <v>7026343</v>
       </c>
       <c r="S77" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
+          <t>På gammal död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9473,10 +9473,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130837733</v>
+        <v>130838833</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9484,21 +9484,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445720</v>
+        <v>445685</v>
       </c>
       <c r="R78" t="n">
-        <v>7026343</v>
+        <v>7026259</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På gammal död gran i gammal granskog</t>
+          <t>På granlåga i gammal granskog</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -6865,10 +6865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130838768</v>
+        <v>130838040</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>83228</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6876,21 +6876,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445697</v>
+        <v>445709</v>
       </c>
       <c r="R55" t="n">
-        <v>7026283</v>
+        <v>7026357</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal barrblandskog</t>
+          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6977,10 +6977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130838040</v>
+        <v>130838768</v>
       </c>
       <c r="B56" t="n">
-        <v>83228</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6988,21 +6988,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>445709</v>
+        <v>445697</v>
       </c>
       <c r="R56" t="n">
-        <v>7026357</v>
+        <v>7026283</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
+          <t>På gammal gran i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7309,7 +7309,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130838225</v>
+        <v>130839371</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -7337,17 +7337,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>445632</v>
+        <v>445780</v>
       </c>
       <c r="R59" t="n">
-        <v>7026388</v>
+        <v>7026357</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7379,7 +7388,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7389,12 +7398,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På gammal gran i gles skog nära källa</t>
+          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7421,7 +7430,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130839371</v>
+        <v>130837289</v>
       </c>
       <c r="B60" t="n">
         <v>79243</v>
@@ -7465,13 +7474,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>445780</v>
+        <v>445777</v>
       </c>
       <c r="R60" t="n">
-        <v>7026357</v>
+        <v>7026331</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7500,7 +7509,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7510,12 +7519,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7542,7 +7551,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130839417</v>
+        <v>130838225</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7577,13 +7586,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>445781</v>
+        <v>445632</v>
       </c>
       <c r="R61" t="n">
-        <v>7026373</v>
+        <v>7026388</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7612,7 +7621,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7622,12 +7631,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På gammal gran i gles skog nära källa</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7654,7 +7663,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130838554</v>
+        <v>130839417</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7689,13 +7698,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>445665</v>
+        <v>445781</v>
       </c>
       <c r="R62" t="n">
-        <v>7026277</v>
+        <v>7026373</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7724,7 +7733,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7734,12 +7743,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>På gammal levande gran i björkrik granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,7 +7775,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130837289</v>
+        <v>130838554</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7794,29 +7803,20 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>445777</v>
+        <v>445665</v>
       </c>
       <c r="R63" t="n">
-        <v>7026331</v>
+        <v>7026277</v>
       </c>
       <c r="S63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>På gammal levande gran i björkrik granskog</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,43 +8122,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R66" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S66" t="n">
         <v>8</v>
@@ -8190,7 +8181,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,12 +8191,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8232,10 +8223,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837548</v>
+        <v>130837393</v>
       </c>
       <c r="B67" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8243,34 +8234,43 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445740</v>
+        <v>445769</v>
       </c>
       <c r="R67" t="n">
-        <v>7026322</v>
+        <v>7026332</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -9249,10 +9249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130839413</v>
+        <v>130838833</v>
       </c>
       <c r="B76" t="n">
-        <v>78255</v>
+        <v>89193</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>228579</v>
+        <v>510</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>445781</v>
+        <v>445685</v>
       </c>
       <c r="R76" t="n">
-        <v>7026373</v>
+        <v>7026259</v>
       </c>
       <c r="S76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
+          <t>På granlåga i gammal granskog</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130838833</v>
+        <v>130837541</v>
       </c>
       <c r="B78" t="n">
-        <v>89193</v>
+        <v>75221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>510</v>
+        <v>6428</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445685</v>
+        <v>445740</v>
       </c>
       <c r="R78" t="n">
-        <v>7026259</v>
+        <v>7026322</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På granlåga i gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9585,32 +9585,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130837541</v>
+        <v>130839413</v>
       </c>
       <c r="B79" t="n">
-        <v>75221</v>
+        <v>78255</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>445740</v>
+        <v>445781</v>
       </c>
       <c r="R79" t="n">
-        <v>7026322</v>
+        <v>7026373</v>
       </c>
       <c r="S79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På bark på stam av levande gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -5413,7 +5413,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130719742</v>
+        <v>130719248</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>445734</v>
+        <v>445790</v>
       </c>
       <c r="R43" t="n">
-        <v>7026264</v>
+        <v>7026392</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5502,12 +5502,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På gammal gran i gles gammal granskog</t>
+          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5518,6 +5518,21 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5534,10 +5549,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130719248</v>
+        <v>130719785</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>78255</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5545,46 +5560,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>445790</v>
+        <v>445739</v>
       </c>
       <c r="R44" t="n">
-        <v>7026392</v>
+        <v>7026240</v>
       </c>
       <c r="S44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5613,7 +5619,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5623,12 +5629,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (13 cm dbh, ca 175 år) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5639,21 +5645,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5670,10 +5661,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130719785</v>
+        <v>130719742</v>
       </c>
       <c r="B45" t="n">
-        <v>78255</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5681,34 +5672,43 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>445739</v>
+        <v>445734</v>
       </c>
       <c r="R45" t="n">
-        <v>7026240</v>
+        <v>7026264</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5750,12 +5750,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6865,10 +6865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130838040</v>
+        <v>130838768</v>
       </c>
       <c r="B55" t="n">
-        <v>83228</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6876,21 +6876,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445709</v>
+        <v>445697</v>
       </c>
       <c r="R55" t="n">
-        <v>7026357</v>
+        <v>7026283</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
+          <t>På gammal gran i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6977,10 +6977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130838768</v>
+        <v>130838040</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>83228</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6988,21 +6988,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>445697</v>
+        <v>445709</v>
       </c>
       <c r="R56" t="n">
-        <v>7026283</v>
+        <v>7026357</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal barrblandskog</t>
+          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7309,7 +7309,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130839371</v>
+        <v>130838225</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -7337,26 +7337,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>445780</v>
+        <v>445632</v>
       </c>
       <c r="R59" t="n">
-        <v>7026357</v>
+        <v>7026388</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7388,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7398,12 +7389,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
+          <t>På gammal gran i gles skog nära källa</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7430,7 +7421,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130837289</v>
+        <v>130839371</v>
       </c>
       <c r="B60" t="n">
         <v>79243</v>
@@ -7474,13 +7465,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>445777</v>
+        <v>445780</v>
       </c>
       <c r="R60" t="n">
-        <v>7026331</v>
+        <v>7026357</v>
       </c>
       <c r="S60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7509,7 +7500,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7519,12 +7510,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7551,7 +7542,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130838225</v>
+        <v>130839417</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7586,13 +7577,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>445632</v>
+        <v>445781</v>
       </c>
       <c r="R61" t="n">
-        <v>7026388</v>
+        <v>7026373</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7621,7 +7612,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7631,12 +7622,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På gammal gran i gles skog nära källa</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7663,7 +7654,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130839417</v>
+        <v>130838554</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7698,13 +7689,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>445781</v>
+        <v>445665</v>
       </c>
       <c r="R62" t="n">
-        <v>7026373</v>
+        <v>7026277</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7733,7 +7724,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7743,12 +7734,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På gammal levande gran i björkrik granskog</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7775,7 +7766,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130838554</v>
+        <v>130837289</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7803,20 +7794,29 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>445665</v>
+        <v>445777</v>
       </c>
       <c r="R63" t="n">
-        <v>7026277</v>
+        <v>7026331</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>På gammal levande gran i björkrik granskog</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8344,10 +8344,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130837316</v>
+        <v>130839110</v>
       </c>
       <c r="B68" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8355,37 +8355,46 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>445777</v>
+        <v>445730</v>
       </c>
       <c r="R68" t="n">
-        <v>7026331</v>
+        <v>7026205</v>
       </c>
       <c r="S68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8414,7 +8423,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8424,12 +8433,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Rikligt på bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal klen död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8456,10 +8465,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130839110</v>
+        <v>130837316</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8467,46 +8476,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>445730</v>
+        <v>445777</v>
       </c>
       <c r="R69" t="n">
-        <v>7026205</v>
+        <v>7026331</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8545,12 +8545,12 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>På gammal klen död gran i gammal granskog</t>
+          <t>Rikligt på bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -9249,10 +9249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130838833</v>
+        <v>130837733</v>
       </c>
       <c r="B76" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>445685</v>
+        <v>445720</v>
       </c>
       <c r="R76" t="n">
-        <v>7026259</v>
+        <v>7026343</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>På granlåga i gammal granskog</t>
+          <t>På gammal död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9361,32 +9361,32 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130837733</v>
+        <v>130837541</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9396,13 +9396,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>445720</v>
+        <v>445740</v>
       </c>
       <c r="R77" t="n">
-        <v>7026343</v>
+        <v>7026322</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På gammal död gran i gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130837541</v>
+        <v>130838833</v>
       </c>
       <c r="B78" t="n">
-        <v>75221</v>
+        <v>89193</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6428</v>
+        <v>510</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445740</v>
+        <v>445685</v>
       </c>
       <c r="R78" t="n">
-        <v>7026322</v>
+        <v>7026259</v>
       </c>
       <c r="S78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På granlåga i gammal granskog</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -6865,10 +6865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130838768</v>
+        <v>130838040</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>83228</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6876,21 +6876,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445697</v>
+        <v>445709</v>
       </c>
       <c r="R55" t="n">
-        <v>7026283</v>
+        <v>7026357</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal barrblandskog</t>
+          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6977,10 +6977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130838040</v>
+        <v>130838768</v>
       </c>
       <c r="B56" t="n">
-        <v>83228</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6988,21 +6988,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>445709</v>
+        <v>445697</v>
       </c>
       <c r="R56" t="n">
-        <v>7026357</v>
+        <v>7026283</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
+          <t>På gammal gran i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -9249,10 +9249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130837733</v>
+        <v>130838833</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>445720</v>
+        <v>445685</v>
       </c>
       <c r="R76" t="n">
-        <v>7026343</v>
+        <v>7026259</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>På gammal död gran i gammal granskog</t>
+          <t>På granlåga i gammal granskog</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9361,32 +9361,32 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130837541</v>
+        <v>130837733</v>
       </c>
       <c r="B77" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9396,13 +9396,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>445740</v>
+        <v>445720</v>
       </c>
       <c r="R77" t="n">
-        <v>7026322</v>
+        <v>7026343</v>
       </c>
       <c r="S77" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På tunna kvistar vid basen på gammal levande gran</t>
+          <t>På gammal död gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9473,32 +9473,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130838833</v>
+        <v>130837541</v>
       </c>
       <c r="B78" t="n">
-        <v>89193</v>
+        <v>75221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>510</v>
+        <v>6428</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9508,13 +9508,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>445685</v>
+        <v>445740</v>
       </c>
       <c r="R78" t="n">
-        <v>7026259</v>
+        <v>7026322</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>På granlåga i gammal granskog</t>
+          <t>På tunna kvistar vid basen på gammal levande gran</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -6644,7 +6644,7 @@
         <v>130839076</v>
       </c>
       <c r="B53" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>130839080</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130838040</v>
+        <v>130838768</v>
       </c>
       <c r="B55" t="n">
-        <v>83228</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6876,21 +6876,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445709</v>
+        <v>445697</v>
       </c>
       <c r="R55" t="n">
-        <v>7026357</v>
+        <v>7026283</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
+          <t>På gammal gran i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6977,10 +6977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130838768</v>
+        <v>130838040</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>83229</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6988,21 +6988,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>445697</v>
+        <v>445709</v>
       </c>
       <c r="R56" t="n">
-        <v>7026283</v>
+        <v>7026357</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal barrblandskog</t>
+          <t>På död gren i hålighet vid basen av gammal levande grov gran (42 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7092,7 +7092,7 @@
         <v>130838099</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>130838346</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130838225</v>
+        <v>130839371</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7337,17 +7337,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>445632</v>
+        <v>445780</v>
       </c>
       <c r="R59" t="n">
-        <v>7026388</v>
+        <v>7026357</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7379,7 +7388,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7389,12 +7398,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På gammal gran i gles skog nära källa</t>
+          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7421,10 +7430,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130839371</v>
+        <v>130838225</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7449,26 +7458,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>445780</v>
+        <v>445632</v>
       </c>
       <c r="R60" t="n">
-        <v>7026357</v>
+        <v>7026388</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7510,12 +7510,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
+          <t>På gammal gran i gles skog nära källa</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7545,7 +7545,7 @@
         <v>130839417</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>130838554</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>130837289</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>130837438</v>
       </c>
       <c r="B64" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>130839350</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837548</v>
+        <v>130837393</v>
       </c>
       <c r="B66" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,34 +8122,43 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445740</v>
+        <v>445769</v>
       </c>
       <c r="R66" t="n">
-        <v>7026322</v>
+        <v>7026332</v>
       </c>
       <c r="S66" t="n">
         <v>8</v>
@@ -8181,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8191,12 +8200,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8223,10 +8232,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8234,43 +8243,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R67" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8347,7 +8347,7 @@
         <v>130839110</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>130837316</v>
       </c>
       <c r="B69" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>130838077</v>
       </c>
       <c r="B70" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>130838158</v>
       </c>
       <c r="B71" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>130838918</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>130839401</v>
       </c>
       <c r="B73" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>130839069</v>
       </c>
       <c r="B74" t="n">
-        <v>79499</v>
+        <v>79500</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>130839071</v>
       </c>
       <c r="B75" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>130838833</v>
       </c>
       <c r="B76" t="n">
-        <v>89193</v>
+        <v>89194</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>130837733</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>130837541</v>
       </c>
       <c r="B78" t="n">
-        <v>75221</v>
+        <v>75222</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>130839413</v>
       </c>
       <c r="B79" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>130839277</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/artfynd/A 61201-2025 artfynd.xlsx
+++ b/artfynd/A 61201-2025 artfynd.xlsx
@@ -7309,7 +7309,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130839371</v>
+        <v>130838225</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -7337,26 +7337,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>445780</v>
+        <v>445632</v>
       </c>
       <c r="R59" t="n">
-        <v>7026357</v>
+        <v>7026388</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7388,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7398,12 +7389,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
+          <t>På gammal gran i gles skog nära källa</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7430,7 +7421,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130838225</v>
+        <v>130839371</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -7458,17 +7449,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>445632</v>
+        <v>445780</v>
       </c>
       <c r="R60" t="n">
-        <v>7026388</v>
+        <v>7026357</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7510,12 +7510,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På gammal gran i gles skog nära källa</t>
+          <t>På gammal gran (ca 200 år) i gles gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -8111,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130837393</v>
+        <v>130837548</v>
       </c>
       <c r="B66" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8122,43 +8122,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>445769</v>
+        <v>445740</v>
       </c>
       <c r="R66" t="n">
-        <v>7026332</v>
+        <v>7026322</v>
       </c>
       <c r="S66" t="n">
         <v>8</v>
@@ -8190,7 +8181,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,12 +8191,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8232,10 +8223,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130837548</v>
+        <v>130837393</v>
       </c>
       <c r="B67" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8243,34 +8234,43 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Svedaun, Svedaun, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>445740</v>
+        <v>445769</v>
       </c>
       <c r="R67" t="n">
-        <v>7026322</v>
+        <v>7026332</v>
       </c>
       <c r="S67" t="n">
         <v>8</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>Rikligt på gammal levande gran (ca 175 år, 25 cm dbh) i gammal granskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD67" t="b">
